--- a/output/fit_clients/fit_round_430.xlsx
+++ b/output/fit_clients/fit_round_430.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1688056013.939777</v>
+        <v>1633000169.81609</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07378313483508236</v>
+        <v>0.09938579496679192</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02848158339217758</v>
+        <v>0.03505556719054932</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>844027960.6533837</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2128562846.655578</v>
+        <v>1647956558.232803</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1731778984830167</v>
+        <v>0.1119436251815439</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0411522129260957</v>
+        <v>0.03301547699952505</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1064281483.32043</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3627069591.208277</v>
+        <v>3532199006.42426</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1075061178108667</v>
+        <v>0.1541361898971676</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03679153445239736</v>
+        <v>0.03283315320031892</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>155</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1813534783.375681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3734956817.842003</v>
+        <v>2890908963.557266</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0675346297003734</v>
+        <v>0.0837627661971207</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0310950739590818</v>
+        <v>0.04023468327916187</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>159</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1867478430.140422</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1828978332.287931</v>
+        <v>2400991734.479259</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1089254691784053</v>
+        <v>0.1009672015532762</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04340339257381359</v>
+        <v>0.04845692275986794</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>81</v>
-      </c>
-      <c r="J6" t="n">
-        <v>914489214.2633352</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2282922126.65292</v>
+        <v>1937428495.44872</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09551468775936711</v>
+        <v>0.09922477911720382</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04261474937109364</v>
+        <v>0.03601152478936796</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>135</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1141461097.319833</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3418120077.541374</v>
+        <v>2465233073.898972</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1344715959145177</v>
+        <v>0.1406213856254144</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03003079255697067</v>
+        <v>0.02329284825944253</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>137</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1709060139.044571</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2258610971.73183</v>
+        <v>2157938033.747072</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1662657211648737</v>
+        <v>0.1941826911681488</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02508009397788831</v>
+        <v>0.02587108506530419</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1129305476.61039</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4087805903.7668</v>
+        <v>3843891690.13779</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1956510530813025</v>
+        <v>0.2095492190105722</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03451490457571836</v>
+        <v>0.04379156174929515</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>181</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2043902980.563254</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2658395155.122376</v>
+        <v>2787991475.290583</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1357856792290553</v>
+        <v>0.1718019115443203</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04509154991313368</v>
+        <v>0.03076345398315266</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>178</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1329197496.675487</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3209688379.290894</v>
+        <v>2788638771.055556</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1886645264319409</v>
+        <v>0.1636941141342316</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0415539475382107</v>
+        <v>0.03929260914832016</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>147</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1604844226.888497</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3767796691.068244</v>
+        <v>3971554103.103573</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07979490945008071</v>
+        <v>0.06163207437046546</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0197150818777255</v>
+        <v>0.02428463151738226</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>144</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1883898412.27313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2577016857.032007</v>
+        <v>3791785498.156414</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1219176816222721</v>
+        <v>0.1305677335493804</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04214635695687537</v>
+        <v>0.03343143775549973</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>139</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1288508493.601823</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1341395043.346141</v>
+        <v>1256880780.860059</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08940307801015697</v>
+        <v>0.1040921475598236</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04321471248136922</v>
+        <v>0.04588348225516187</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>670697571.225129</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2862461766.141052</v>
+        <v>2163276139.851535</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09688630477740402</v>
+        <v>0.07957116042057796</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03590954957320058</v>
+        <v>0.04112362135697543</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>89</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1431230881.520721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3611220580.926593</v>
+        <v>3211773673.572167</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1463357961269223</v>
+        <v>0.1291154005727452</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04762129395758542</v>
+        <v>0.03234672594187862</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>126</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1805610344.251819</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3684288470.939628</v>
+        <v>2658435837.494529</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1241395075831145</v>
+        <v>0.1191231288499412</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02607253560849336</v>
+        <v>0.03026839289165882</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>141</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1842144216.202689</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>941939628.63351</v>
+        <v>1367617565.747744</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1478627521150186</v>
+        <v>0.1674041904501259</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02099231049711138</v>
+        <v>0.02253345638905385</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>470969829.4746804</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2015556255.311186</v>
+        <v>2721644293.256834</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1209137205849415</v>
+        <v>0.1206201731000019</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02517736631548538</v>
+        <v>0.02722766367141681</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>60</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1007778152.373103</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2044631266.447223</v>
+        <v>1959786482.741014</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08437798851223208</v>
+        <v>0.08200442844368565</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03049341101699311</v>
+        <v>0.03976502083338566</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1022315664.940404</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3498347816.135179</v>
+        <v>3750496952.13109</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1307937036940871</v>
+        <v>0.138284230403851</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05070717675596673</v>
+        <v>0.05331381329468867</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>118</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1749173939.774197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1087161610.458063</v>
+        <v>1500689951.081667</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1330826015554709</v>
+        <v>0.1436355512453289</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03644172825688414</v>
+        <v>0.04032540412577274</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>543580860.7476312</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3382042564.94515</v>
+        <v>3918532569.154912</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1291696594424395</v>
+        <v>0.1147493865058557</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03646394651009435</v>
+        <v>0.03157467199358586</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>125</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1691021292.040751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>930964319.7833616</v>
+        <v>1249367500.996777</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08130585592144163</v>
+        <v>0.07505567766969883</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0234376752495125</v>
+        <v>0.02177222860179056</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>465482239.7799196</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1168263169.163386</v>
+        <v>1280906163.95995</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08316075724359931</v>
+        <v>0.1053037788899568</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02567242314221486</v>
+        <v>0.02841260654989061</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>584131597.8497699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3978832470.79701</v>
+        <v>4059889462.955684</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1381287272937393</v>
+        <v>0.1409483180510683</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02608146687972603</v>
+        <v>0.02703873976581586</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1989416246.599725</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3509280855.896706</v>
+        <v>3092026693.458123</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1423988437458569</v>
+        <v>0.1028025201523683</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04170507456207915</v>
+        <v>0.03454673389829071</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>138</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1754640483.390059</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4487949028.574507</v>
+        <v>5774800821.208167</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1008942953978468</v>
+        <v>0.1423043005234879</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03761866010647318</v>
+        <v>0.03827689295398179</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>190</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2243974497.393686</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1517543147.707653</v>
+        <v>2359809848.22232</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1261294631767291</v>
+        <v>0.1142829558486143</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03040357471752599</v>
+        <v>0.02467723848405558</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>758771556.357174</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1193936607.018736</v>
+        <v>988054285.9024504</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08683639965983378</v>
+        <v>0.07269201972255356</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04869117411532031</v>
+        <v>0.03401085912104428</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>596968256.4207978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1529862129.311457</v>
+        <v>1430569063.428411</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07612960648386806</v>
+        <v>0.1062448085049131</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02824007640758142</v>
+        <v>0.02728102896237587</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>764931139.2148287</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2998508322.10941</v>
+        <v>1978817136.528435</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1620760406231651</v>
+        <v>0.1735023008060383</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05374586892058299</v>
+        <v>0.05852916028593558</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>131</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1499254156.850036</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1215771533.615279</v>
+        <v>1056819982.609709</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08621181042840355</v>
+        <v>0.1018226550406118</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0185281626357061</v>
+        <v>0.02461956320588445</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>607885769.2635087</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1081825278.280535</v>
+        <v>875974439.5098698</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09917653614961837</v>
+        <v>0.09032399389345132</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03986072930381885</v>
+        <v>0.04520467839559025</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>540912639.8089705</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2191172852.271577</v>
+        <v>3058928409.814816</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1189296074966114</v>
+        <v>0.1445936321736573</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01828413009258356</v>
+        <v>0.01921141768783398</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>109</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1095586472.855852</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2574147726.322215</v>
+        <v>2777083854.353468</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1031825835117313</v>
+        <v>0.08388106666814525</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03614164471378663</v>
+        <v>0.03149634341398439</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>117</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1287073969.421572</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1839538302.894497</v>
+        <v>1356179517.184231</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1077740790651637</v>
+        <v>0.09843864761769958</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03730229695221265</v>
+        <v>0.03041146901840691</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>919769152.7628134</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1800834299.152801</v>
+        <v>1829618715.737653</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1328954287912317</v>
+        <v>0.1333741042694885</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02583410754586103</v>
+        <v>0.02746463578627106</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>900417174.3962938</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1640363577.718262</v>
+        <v>1364492802.681643</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1350854126300037</v>
+        <v>0.1028178504561027</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0513668478441619</v>
+        <v>0.05433640885253854</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>820181719.9217645</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2705607618.432127</v>
+        <v>2244867408.085503</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1630019090861798</v>
+        <v>0.119137358069854</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03170976417690031</v>
+        <v>0.0330727061288867</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>107</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1352803814.349082</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4044681976.498617</v>
+        <v>2964672744.421805</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07743714539272149</v>
+        <v>0.08560906730510821</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04533691271427746</v>
+        <v>0.03438817628624484</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>140</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2022341020.607226</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2459522567.918097</v>
+        <v>2209097761.439686</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1934668129210886</v>
+        <v>0.1536408530702995</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02013994372593605</v>
+        <v>0.01574207089290816</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>149</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1229761336.708091</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2189115109.623962</v>
+        <v>2169262482.815004</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06381075981990571</v>
+        <v>0.08849018804352718</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02730479797374854</v>
+        <v>0.03249483435119645</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1094557698.90803</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2433721013.105262</v>
+        <v>1728474850.929395</v>
       </c>
       <c r="F45" t="n">
-        <v>0.191432483301203</v>
+        <v>0.1918495755919067</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04406320911251126</v>
+        <v>0.04715864924245375</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1216860541.189938</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3673865625.849509</v>
+        <v>4852685669.614229</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1141630460099886</v>
+        <v>0.1185593420490231</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03984843335676672</v>
+        <v>0.04523237078330626</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>153</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1836932763.811409</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4093466269.611228</v>
+        <v>4098910719.28457</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1702995062284685</v>
+        <v>0.1583370495146908</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0399786848870282</v>
+        <v>0.05861949294511112</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>116</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2046733139.293834</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3361698200.450363</v>
+        <v>3990132586.087493</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09043583622690715</v>
+        <v>0.1090584268229407</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03367417848733066</v>
+        <v>0.03693196183840793</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>142</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1680849171.697923</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1893176796.475782</v>
+        <v>1809067195.265674</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1606104412597744</v>
+        <v>0.1409544352999338</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02743663065602522</v>
+        <v>0.04311071942678047</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>946588369.1643742</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3143644889.490714</v>
+        <v>3308833244.228728</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1234101521857118</v>
+        <v>0.125484057138414</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04658160183102965</v>
+        <v>0.03595069870233524</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>147</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1571822494.375248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1367667498.406825</v>
+        <v>1003880271.170491</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1852419667840678</v>
+        <v>0.1955820584869686</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04304821754196947</v>
+        <v>0.04334078778999811</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>683833773.602211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4062257170.759181</v>
+        <v>4240502471.78131</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1040320158202715</v>
+        <v>0.09569308012309237</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0421472313067778</v>
+        <v>0.05218166717773128</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>177</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2031128638.20903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2646354979.376771</v>
+        <v>2484394458.432637</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1943801516450469</v>
+        <v>0.1801560561823319</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03162199361997466</v>
+        <v>0.0301513193207677</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>123</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1323177546.56264</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>2996469220.701561</v>
+        <v>3516703145.61472</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1639317148680292</v>
+        <v>0.110337840990368</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04867140370695335</v>
+        <v>0.04654627923298956</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>139</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1498234595.64361</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3007235678.577526</v>
+        <v>4163422495.514371</v>
       </c>
       <c r="F55" t="n">
-        <v>0.163575453605664</v>
+        <v>0.2077115999139398</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02303555580240838</v>
+        <v>0.02677668923684268</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1503617770.390054</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1224393425.077161</v>
+        <v>1181514119.785952</v>
       </c>
       <c r="F56" t="n">
-        <v>0.151152995460461</v>
+        <v>0.1448519976713435</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03675885948731225</v>
+        <v>0.04396499889872191</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>612196795.6481681</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3903332919.467852</v>
+        <v>2887179805.575618</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1690875874458487</v>
+        <v>0.1727079536622973</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02596997178539946</v>
+        <v>0.01757386544257183</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>136</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1951666540.002146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1680573904.788744</v>
+        <v>1374077795.443547</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1632317756504836</v>
+        <v>0.1568214965465276</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03470596982053141</v>
+        <v>0.03716135290853892</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>840286967.0711403</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4748938177.697186</v>
+        <v>3641640607.130992</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08007681386516347</v>
+        <v>0.1295628197211287</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03813507704307974</v>
+        <v>0.04677798897819825</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>119</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2374469028.693757</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3189883532.976965</v>
+        <v>2613786518.71971</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1488252879723595</v>
+        <v>0.1302141915824021</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02872914047881382</v>
+        <v>0.02092638002814624</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>134</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1594941856.776547</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2839639460.871274</v>
+        <v>2106557161.663584</v>
       </c>
       <c r="F61" t="n">
-        <v>0.110228409395609</v>
+        <v>0.1242201925853201</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02001704122358465</v>
+        <v>0.03220222025534183</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>147</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1419819726.045104</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1963212438.377683</v>
+        <v>1870164805.63542</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1863968361560819</v>
+        <v>0.1269508795547549</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03395509537742816</v>
+        <v>0.03187042064015297</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>981606271.7536049</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5577089401.771538</v>
+        <v>3397417138.269886</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08114655780734395</v>
+        <v>0.07488989382894295</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0417264736027852</v>
+        <v>0.03397566620233973</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>125</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2788544692.94191</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3488162785.064387</v>
+        <v>5433134077.170791</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1582871314002427</v>
+        <v>0.1398364043597912</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02402430664664972</v>
+        <v>0.02161807939537328</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>134</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1744081392.410096</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5939776773.572657</v>
+        <v>4869693158.735539</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1092049254703022</v>
+        <v>0.1640402946563654</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02097188172325218</v>
+        <v>0.03231153326406945</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>154</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2969888289.636858</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4270860208.756442</v>
+        <v>4970895962.175483</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1511403446947683</v>
+        <v>0.1457970272808217</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04693825423901834</v>
+        <v>0.0313029490629797</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>126</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2135430092.461869</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3147459170.778246</v>
+        <v>2181794781.52033</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09482375091857635</v>
+        <v>0.06308100551398817</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04163803061301934</v>
+        <v>0.03597010358069887</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>138</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1573729591.205626</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4858251245.934203</v>
+        <v>5352336031.577168</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1139433589870424</v>
+        <v>0.1604189192827364</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04661953037526896</v>
+        <v>0.05097999554535556</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>137</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2429125670.785146</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1656395560.967254</v>
+        <v>1926654612.827614</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1582297656545864</v>
+        <v>0.1242021974153131</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04566045500637499</v>
+        <v>0.04343307059272371</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>828197741.0286279</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3565924695.8946</v>
+        <v>3586227292.023698</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06431805544132577</v>
+        <v>0.09749099556383267</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03265060096285437</v>
+        <v>0.03173888925296574</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>122</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1782962361.85668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4309990975.708317</v>
+        <v>3644146318.77728</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1364291464747794</v>
+        <v>0.1276883351764304</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03265299558540379</v>
+        <v>0.03313746085597545</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>156</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2154995542.099404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1551596736.904539</v>
+        <v>2247735857.323681</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09362813199320892</v>
+        <v>0.07994793453926667</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04433868645943704</v>
+        <v>0.03248604681309054</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>775798387.1029516</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2489631216.812215</v>
+        <v>3516460892.887949</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09459199480425733</v>
+        <v>0.1033513421745982</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03344345190676554</v>
+        <v>0.04308834617943012</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>163</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1244815651.128615</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3558291478.836673</v>
+        <v>2659937522.915197</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1196435553986267</v>
+        <v>0.1364831724530024</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02326264657423285</v>
+        <v>0.02627110146392007</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>146</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1779145756.534347</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2329335056.819568</v>
+        <v>1961909143.33827</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1149531872467095</v>
+        <v>0.1220758006737064</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03241995983862651</v>
+        <v>0.0357228439130502</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1164667461.801871</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3895766794.462586</v>
+        <v>5137625616.516401</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07740273019699385</v>
+        <v>0.1077253314288406</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03350608208880108</v>
+        <v>0.02531746063101794</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>105</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1947883377.610009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1776390098.468891</v>
+        <v>1929606543.539271</v>
       </c>
       <c r="F77" t="n">
-        <v>0.117984848114278</v>
+        <v>0.1629922095506998</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03004550033051363</v>
+        <v>0.02388613079623486</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>888195077.7185944</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4197090393.641988</v>
+        <v>3874177803.540775</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1101162386333474</v>
+        <v>0.111479479694152</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04741749318138258</v>
+        <v>0.034928219986273</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>149</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2098545148.473844</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1691360252.903369</v>
+        <v>1215214148.131703</v>
       </c>
       <c r="F79" t="n">
-        <v>0.165147291388817</v>
+        <v>0.1070713792648564</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03532347671038455</v>
+        <v>0.0339164384941759</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>845680194.1188499</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4749135151.555248</v>
+        <v>3776568426.158964</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06838215123817169</v>
+        <v>0.08455524838828565</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03231398895820741</v>
+        <v>0.03136613543609228</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2374567612.515893</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4315704985.33636</v>
+        <v>3400951410.706109</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08899140701989552</v>
+        <v>0.1128158581011093</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03185285166999643</v>
+        <v>0.02440629040442196</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2157852467.622643</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4103624246.52903</v>
+        <v>3939136160.725152</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1571260422291188</v>
+        <v>0.1765163388768406</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01968609225023327</v>
+        <v>0.01811782758838842</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>151</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2051812157.26564</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1692798545.859691</v>
+        <v>1510963996.578863</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1270170931907731</v>
+        <v>0.137817379396756</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03195160179393113</v>
+        <v>0.04307049666775427</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>846399220.041613</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2027049636.018156</v>
+        <v>2085482880.327041</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08744561578471211</v>
+        <v>0.1011902613221581</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03563551710325166</v>
+        <v>0.04263715887189876</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1013524819.058106</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3066961603.975692</v>
+        <v>2872960458.469861</v>
       </c>
       <c r="F85" t="n">
-        <v>0.16306270742286</v>
+        <v>0.1130768748599092</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03802458745067815</v>
+        <v>0.03545755822610525</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>162</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1533480869.576941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2537890381.734215</v>
+        <v>1910330715.356032</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1254735508548672</v>
+        <v>0.1616272359434044</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02121518898002261</v>
+        <v>0.02412763116525696</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>55</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1268945293.297706</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1076996372.373693</v>
+        <v>1061863391.419686</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1613959898401388</v>
+        <v>0.128428474104043</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03030178090886756</v>
+        <v>0.02841722550679194</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>538498210.256009</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2301967405.005932</v>
+        <v>3182313406.259777</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1073795764417622</v>
+        <v>0.1366668609617055</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02481674575390819</v>
+        <v>0.03304289198677082</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>170</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1150983663.972831</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3477406155.8583</v>
+        <v>2202423288.258566</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1201470640451811</v>
+        <v>0.1294269384739157</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03727854429176771</v>
+        <v>0.02764269441951199</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>144</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1738703081.047797</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1340946298.739927</v>
+        <v>1735198356.606512</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1122738585986228</v>
+        <v>0.1291881240123011</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03709299229550605</v>
+        <v>0.04812971376809069</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>670473099.0402572</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1279432707.960265</v>
+        <v>1563307369.59927</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1789096832546496</v>
+        <v>0.1432791996513468</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05369796003906865</v>
+        <v>0.0456327760692533</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>639716422.340764</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1836779879.130883</v>
+        <v>1985039722.573078</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1052879074519395</v>
+        <v>0.09798479604758599</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03322222979645197</v>
+        <v>0.04338128700703236</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>121</v>
-      </c>
-      <c r="J92" t="n">
-        <v>918389873.4737186</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3276496754.510386</v>
+        <v>4341620968.202461</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1146451255207321</v>
+        <v>0.0925315842152207</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03485643816686366</v>
+        <v>0.05317230186796715</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>132</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1638248424.655766</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2324284331.023081</v>
+        <v>2052943293.200387</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1107178441639566</v>
+        <v>0.1117117956753542</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04190897795443387</v>
+        <v>0.04212392991626378</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1162142206.072496</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2805938656.248484</v>
+        <v>3166434574.073662</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1376013231118907</v>
+        <v>0.136285287455585</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0448395009359516</v>
+        <v>0.04396443957986515</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>104</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1402969341.966289</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1572437023.150629</v>
+        <v>1855684116.638414</v>
       </c>
       <c r="F96" t="n">
-        <v>0.100934552755855</v>
+        <v>0.09306209621089703</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04049673802451095</v>
+        <v>0.03162571414860325</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>786218544.2303003</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5212077905.715172</v>
+        <v>3856947783.251631</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1578155005908029</v>
+        <v>0.1743608063405958</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02580186884077086</v>
+        <v>0.01781987380613938</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>137</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2606039106.731849</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2770853715.125152</v>
+        <v>2995749081.653193</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1042252418527969</v>
+        <v>0.105082520276487</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02313919833482923</v>
+        <v>0.02844020318622911</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>116</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1385426826.767337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2624276062.06718</v>
+        <v>2625365403.221595</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09876392166022256</v>
+        <v>0.141938382780233</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03194358491415276</v>
+        <v>0.03094257052483975</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>134</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1312137989.751289</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4342247882.518497</v>
+        <v>4712685735.993354</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1670735200103278</v>
+        <v>0.1508134648740638</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02540419953932142</v>
+        <v>0.02313946443801085</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>132</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2171124039.278571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2175101522.588027</v>
+        <v>2684841524.095982</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1425543792254447</v>
+        <v>0.2048995743847896</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0420015513411485</v>
+        <v>0.03801451490553706</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>175</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1087550741.397495</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_430.xlsx
+++ b/output/fit_clients/fit_round_430.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1633000169.81609</v>
+        <v>1579286400.768059</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09938579496679192</v>
+        <v>0.07160629688697762</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03505556719054932</v>
+        <v>0.04493340026493236</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1647956558.232803</v>
+        <v>2345429318.634657</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1119436251815439</v>
+        <v>0.1154467644106625</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03301547699952505</v>
+        <v>0.03317785155935406</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3532199006.42426</v>
+        <v>4839754354.435327</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1541361898971676</v>
+        <v>0.1031583922030964</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03283315320031892</v>
+        <v>0.02903767240430647</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2890908963.557266</v>
+        <v>4150938646.674263</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0837627661971207</v>
+        <v>0.06792504365075663</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04023468327916187</v>
+        <v>0.03589504140229909</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2400991734.479259</v>
+        <v>2200879472.705081</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1009672015532762</v>
+        <v>0.1272079061035838</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04845692275986794</v>
+        <v>0.056419184139077</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1937428495.44872</v>
+        <v>2356621494.708164</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09922477911720382</v>
+        <v>0.09426906855035769</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03601152478936796</v>
+        <v>0.03181719808159375</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2465233073.898972</v>
+        <v>3204315862.821295</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1406213856254144</v>
+        <v>0.1964771635584962</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02329284825944253</v>
+        <v>0.02975529917835345</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2157938033.747072</v>
+        <v>1794185105.103995</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1941826911681488</v>
+        <v>0.1402207776657783</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02587108506530419</v>
+        <v>0.02776255530372018</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3843891690.13779</v>
+        <v>4693538603.397873</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2095492190105722</v>
+        <v>0.155850148539646</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04379156174929515</v>
+        <v>0.04367464502471193</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2787991475.290583</v>
+        <v>3254694103.556225</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1718019115443203</v>
+        <v>0.1622569250316327</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03076345398315266</v>
+        <v>0.04740677362941895</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,16 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2788638771.055556</v>
+        <v>2458521045.352109</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1636941141342316</v>
+        <v>0.1914954470922082</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03929260914832016</v>
+        <v>0.05379320996823026</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3971554103.103573</v>
+        <v>4618698065.125018</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06163207437046546</v>
+        <v>0.07556314978653718</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02428463151738226</v>
+        <v>0.02142764071094138</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3791785498.156414</v>
+        <v>3853969924.336136</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1305677335493804</v>
+        <v>0.1273665523658078</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03343143775549973</v>
+        <v>0.04176806155898939</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1256880780.860059</v>
+        <v>1165622163.599981</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1040921475598236</v>
+        <v>0.06685126837821409</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04588348225516187</v>
+        <v>0.04721781569649963</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2163276139.851535</v>
+        <v>2137252704.229405</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07957116042057796</v>
+        <v>0.08235973448974897</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04112362135697543</v>
+        <v>0.04352814606013816</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3211773673.572167</v>
+        <v>4877135943.21149</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1291154005727452</v>
+        <v>0.1627122544486042</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03234672594187862</v>
+        <v>0.03568344316351772</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2658435837.494529</v>
+        <v>3581893732.482751</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1191231288499412</v>
+        <v>0.1173004852463766</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03026839289165882</v>
+        <v>0.03188307637424474</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1367617565.747744</v>
+        <v>967131490.0193533</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1674041904501259</v>
+        <v>0.153225077596234</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02253345638905385</v>
+        <v>0.02464551545047112</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2721644293.256834</v>
+        <v>2610962808.839972</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1206201731000019</v>
+        <v>0.1218537562897834</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02722766367141681</v>
+        <v>0.02855340270909318</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1959786482.741014</v>
+        <v>2332062175.122539</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08200442844368565</v>
+        <v>0.09403381254590019</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03976502083338566</v>
+        <v>0.03807234307742405</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3750496952.13109</v>
+        <v>2641931801.236555</v>
       </c>
       <c r="F22" t="n">
-        <v>0.138284230403851</v>
+        <v>0.1334053106554273</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05331381329468867</v>
+        <v>0.04545118529768576</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1500689951.081667</v>
+        <v>1481983197.408114</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1436355512453289</v>
+        <v>0.1806737108611411</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04032540412577274</v>
+        <v>0.03837665577545184</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3918532569.154912</v>
+        <v>2907210866.943407</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1147493865058557</v>
+        <v>0.1222058067845941</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03157467199358586</v>
+        <v>0.02930634149653422</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1249367500.996777</v>
+        <v>1362706744.285394</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07505567766969883</v>
+        <v>0.07976565859153269</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02177222860179056</v>
+        <v>0.02176301110106309</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1280906163.95995</v>
+        <v>1348763861.512589</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1053037788899568</v>
+        <v>0.07621873579791014</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02841260654989061</v>
+        <v>0.02579941076665971</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4059889462.955684</v>
+        <v>2877308126.940844</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1409483180510683</v>
+        <v>0.1277913937411351</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02703873976581586</v>
+        <v>0.02147272112476356</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3092026693.458123</v>
+        <v>3268581821.14444</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1028025201523683</v>
+        <v>0.1449970700947525</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03454673389829071</v>
+        <v>0.04578602673198574</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5774800821.208167</v>
+        <v>5260672874.368253</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1423043005234879</v>
+        <v>0.1443459044791501</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03827689295398179</v>
+        <v>0.04197761485696833</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2359809848.22232</v>
+        <v>1899907522.433571</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1142829558486143</v>
+        <v>0.09365524899368882</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02467723848405558</v>
+        <v>0.03963575129264398</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>988054285.9024504</v>
+        <v>1397882565.282657</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07269201972255356</v>
+        <v>0.1120314898420714</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03401085912104428</v>
+        <v>0.03559348316355739</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1430569063.428411</v>
+        <v>1483703270.26949</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1062448085049131</v>
+        <v>0.0962211168834778</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02728102896237587</v>
+        <v>0.02782284178451113</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1978817136.528435</v>
+        <v>2685873896.546402</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1735023008060383</v>
+        <v>0.1409378784796175</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05852916028593558</v>
+        <v>0.06014494806263497</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1056819982.609709</v>
+        <v>1012353853.955349</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1018226550406118</v>
+        <v>0.0815826308433935</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02461956320588445</v>
+        <v>0.02117592932763675</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>875974439.5098698</v>
+        <v>895648552.6780202</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09032399389345132</v>
+        <v>0.1010334102507381</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04520467839559025</v>
+        <v>0.0346302388687009</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3058928409.814816</v>
+        <v>3252907423.556115</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1445936321736573</v>
+        <v>0.1116244482177435</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01921141768783398</v>
+        <v>0.01888496815769181</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2777083854.353468</v>
+        <v>2267709823.852547</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08388106666814525</v>
+        <v>0.08995175927462989</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03149634341398439</v>
+        <v>0.034521626167194</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1356179517.184231</v>
+        <v>1468716683.091324</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09843864761769958</v>
+        <v>0.07709106557927919</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03041146901840691</v>
+        <v>0.02940920694641912</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1829618715.737653</v>
+        <v>1691095402.664004</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1333741042694885</v>
+        <v>0.1869530073353159</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02746463578627106</v>
+        <v>0.02223441251757038</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1364492802.681643</v>
+        <v>1414571859.567557</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1028178504561027</v>
+        <v>0.1516030047550853</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05433640885253854</v>
+        <v>0.03674356821730644</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2244867408.085503</v>
+        <v>1979846020.673488</v>
       </c>
       <c r="F41" t="n">
-        <v>0.119137358069854</v>
+        <v>0.1191755425445425</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0330727061288867</v>
+        <v>0.03710374054836914</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2964672744.421805</v>
+        <v>3568559087.522463</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08560906730510821</v>
+        <v>0.07881770282978569</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03438817628624484</v>
+        <v>0.03726635693912469</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2209097761.439686</v>
+        <v>2626467102.329372</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1536408530702995</v>
+        <v>0.1936461553432638</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01574207089290816</v>
+        <v>0.01663857650442601</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2169262482.815004</v>
+        <v>2281924311.291806</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08849018804352718</v>
+        <v>0.06726822178742022</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03249483435119645</v>
+        <v>0.03614445019970444</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1728474850.929395</v>
+        <v>2135819926.181928</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1918495755919067</v>
+        <v>0.1551298758733434</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04715864924245375</v>
+        <v>0.0554456384111626</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4852685669.614229</v>
+        <v>3932492903.696276</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1185593420490231</v>
+        <v>0.1408626263169469</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04523237078330626</v>
+        <v>0.04905508159612307</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4098910719.28457</v>
+        <v>4891055582.974537</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1583370495146908</v>
+        <v>0.1392153808235697</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05861949294511112</v>
+        <v>0.04471907376536328</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3990132586.087493</v>
+        <v>3760994309.658174</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1090584268229407</v>
+        <v>0.0782861642427554</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03693196183840793</v>
+        <v>0.03529191496956641</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1809067195.265674</v>
+        <v>1866681469.197494</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1409544352999338</v>
+        <v>0.1628368692204823</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04311071942678047</v>
+        <v>0.0402263394115774</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3308833244.228728</v>
+        <v>4005839741.384056</v>
       </c>
       <c r="F50" t="n">
-        <v>0.125484057138414</v>
+        <v>0.1085653761400465</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03595069870233524</v>
+        <v>0.04411233062431435</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1003880271.170491</v>
+        <v>1541882260.944088</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1955820584869686</v>
+        <v>0.131593625518555</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04334078778999811</v>
+        <v>0.05344044014926429</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4240502471.78131</v>
+        <v>5054138020.336706</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09569308012309237</v>
+        <v>0.1364640910811364</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05218166717773128</v>
+        <v>0.05963390798063412</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2484394458.432637</v>
+        <v>2821089224.509163</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1801560561823319</v>
+        <v>0.1793463868724362</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0301513193207677</v>
+        <v>0.02549081161696241</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3516703145.61472</v>
+        <v>4568261976.228281</v>
       </c>
       <c r="F54" t="n">
-        <v>0.110337840990368</v>
+        <v>0.1198729914794653</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04654627923298956</v>
+        <v>0.04165284314889524</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4163422495.514371</v>
+        <v>4279334591.43877</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2077115999139398</v>
+        <v>0.1920444272226107</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02677668923684268</v>
+        <v>0.02801287376870952</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1181514119.785952</v>
+        <v>1209117946.390185</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1448519976713435</v>
+        <v>0.1455609546456435</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04396499889872191</v>
+        <v>0.05444549787809854</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2887179805.575618</v>
+        <v>3950438599.160516</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1727079536622973</v>
+        <v>0.1223434062382289</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01757386544257183</v>
+        <v>0.01746387755516458</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1374077795.443547</v>
+        <v>1264542404.068142</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1568214965465276</v>
+        <v>0.1841425424777512</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03716135290853892</v>
+        <v>0.03402145713172283</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3641640607.130992</v>
+        <v>4163148284.576411</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1295628197211287</v>
+        <v>0.1310199168435017</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04677798897819825</v>
+        <v>0.04348302343259446</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2613786518.71971</v>
+        <v>2696388813.749587</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1302141915824021</v>
+        <v>0.1714595785077708</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02092638002814624</v>
+        <v>0.025903278566055</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2106557161.663584</v>
+        <v>2979351663.933379</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1242201925853201</v>
+        <v>0.1111528387663321</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03220222025534183</v>
+        <v>0.02611866808811508</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1870164805.63542</v>
+        <v>1608723815.923908</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1269508795547549</v>
+        <v>0.1783068935951752</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03187042064015297</v>
+        <v>0.04452677976898536</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3397417138.269886</v>
+        <v>4291126292.590823</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07488989382894295</v>
+        <v>0.1028691855870737</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03397566620233973</v>
+        <v>0.04490830026574755</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5433134077.170791</v>
+        <v>5111313510.208535</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1398364043597912</v>
+        <v>0.1315751794646808</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02161807939537328</v>
+        <v>0.02955054316921551</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4869693158.735539</v>
+        <v>4981359195.35608</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1640402946563654</v>
+        <v>0.1085350043073538</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03231153326406945</v>
+        <v>0.02391065921987414</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4970895962.175483</v>
+        <v>5376100062.334651</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1457970272808217</v>
+        <v>0.1443028713859461</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0313029490629797</v>
+        <v>0.03877461537975977</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2181794781.52033</v>
+        <v>3165860336.124003</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06308100551398817</v>
+        <v>0.06740264219588799</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03597010358069887</v>
+        <v>0.03644239267694359</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5352336031.577168</v>
+        <v>4767005734.665959</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1604189192827364</v>
+        <v>0.1548254845278107</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05097999554535556</v>
+        <v>0.05007981588283965</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1926654612.827614</v>
+        <v>2404913641.073776</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1242021974153131</v>
+        <v>0.113799556967198</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04343307059272371</v>
+        <v>0.04470293102391731</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3586227292.023698</v>
+        <v>3558309107.689999</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09749099556383267</v>
+        <v>0.06669083395330749</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03173888925296574</v>
+        <v>0.03501941083335795</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3644146318.77728</v>
+        <v>4586244102.802155</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1276883351764304</v>
+        <v>0.1580898458725529</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03313746085597545</v>
+        <v>0.03348704853805794</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2247735857.323681</v>
+        <v>2191070081.290939</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07994793453926667</v>
+        <v>0.07413976829567857</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03248604681309054</v>
+        <v>0.04328783780832312</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3516460892.887949</v>
+        <v>2719121498.202187</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1033513421745982</v>
+        <v>0.1121226001885063</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04308834617943012</v>
+        <v>0.05095512846854258</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2659937522.915197</v>
+        <v>2477363091.974116</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1364831724530024</v>
+        <v>0.1660265878086729</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02627110146392007</v>
+        <v>0.02818800436825641</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1961909143.33827</v>
+        <v>2346980409.030943</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1220758006737064</v>
+        <v>0.1557061801224325</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0357228439130502</v>
+        <v>0.02489898531821253</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5137625616.516401</v>
+        <v>3780304641.875033</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1077253314288406</v>
+        <v>0.1084097328075219</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02531746063101794</v>
+        <v>0.02183944836802013</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1929606543.539271</v>
+        <v>1624628376.164444</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1629922095506998</v>
+        <v>0.1799205672832295</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02388613079623486</v>
+        <v>0.02418947858477096</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3874177803.540775</v>
+        <v>4403492726.191623</v>
       </c>
       <c r="F78" t="n">
-        <v>0.111479479694152</v>
+        <v>0.1073861317275706</v>
       </c>
       <c r="G78" t="n">
-        <v>0.034928219986273</v>
+        <v>0.04790284884476522</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1215214148.131703</v>
+        <v>1643731817.580596</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1070713792648564</v>
+        <v>0.1252204738499524</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0339164384941759</v>
+        <v>0.03662499017949082</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3776568426.158964</v>
+        <v>4887203722.179499</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08455524838828565</v>
+        <v>0.09398877144176421</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03136613543609228</v>
+        <v>0.0322617331641895</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3400951410.706109</v>
+        <v>3535923783.47479</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1128158581011093</v>
+        <v>0.09508557342288949</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02440629040442196</v>
+        <v>0.02882205932663936</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3939136160.725152</v>
+        <v>4018609041.576094</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1765163388768406</v>
+        <v>0.1761117132876439</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01811782758838842</v>
+        <v>0.02525906082758815</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1510963996.578863</v>
+        <v>2479145659.139568</v>
       </c>
       <c r="F83" t="n">
-        <v>0.137817379396756</v>
+        <v>0.1357579985048467</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04307049666775427</v>
+        <v>0.03311561473693148</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2085482880.327041</v>
+        <v>2296992460.390292</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1011902613221581</v>
+        <v>0.08604177239013644</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04263715887189876</v>
+        <v>0.03240259649586992</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2872960458.469861</v>
+        <v>3150159706.349083</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1130768748599092</v>
+        <v>0.1266198549426169</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03545755822610525</v>
+        <v>0.03900045825530797</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1910330715.356032</v>
+        <v>1785338822.731259</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1616272359434044</v>
+        <v>0.1385467196598634</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02412763116525696</v>
+        <v>0.01854433349104806</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1061863391.419686</v>
+        <v>1267060878.660293</v>
       </c>
       <c r="F87" t="n">
-        <v>0.128428474104043</v>
+        <v>0.1299426720527383</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02841722550679194</v>
+        <v>0.03291192098998434</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3182313406.259777</v>
+        <v>3340907481.822621</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1366668609617055</v>
+        <v>0.1178696185083045</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03304289198677082</v>
+        <v>0.03748509199930863</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2202423288.258566</v>
+        <v>3150116414.98272</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1294269384739157</v>
+        <v>0.1175671492730807</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02764269441951199</v>
+        <v>0.03435570313766348</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1735198356.606512</v>
+        <v>1888020674.991239</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1291881240123011</v>
+        <v>0.1358935967255053</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04812971376809069</v>
+        <v>0.0446558242578359</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1563307369.59927</v>
+        <v>2037328138.683293</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1432791996513468</v>
+        <v>0.1775515846069955</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0456327760692533</v>
+        <v>0.05269399413757176</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1985039722.573078</v>
+        <v>1840368111.674434</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09798479604758599</v>
+        <v>0.09868994703400048</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04338128700703236</v>
+        <v>0.03144134956876554</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4341620968.202461</v>
+        <v>4436066417.79985</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0925315842152207</v>
+        <v>0.1317803266286766</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05317230186796715</v>
+        <v>0.05028678623526708</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2052943293.200387</v>
+        <v>2172790844.284053</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1117117956753542</v>
+        <v>0.1652405692425607</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04212392991626378</v>
+        <v>0.03534147374613634</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3166434574.073662</v>
+        <v>3093109897.576948</v>
       </c>
       <c r="F95" t="n">
-        <v>0.136285287455585</v>
+        <v>0.08584720301233173</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04396443957986515</v>
+        <v>0.04863061135544615</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1855684116.638414</v>
+        <v>2110576542.721232</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09306209621089703</v>
+        <v>0.08888840581899911</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03162571414860325</v>
+        <v>0.0295872281309848</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3856947783.251631</v>
+        <v>4289681134.463973</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1743608063405958</v>
+        <v>0.1677716728411029</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01781987380613938</v>
+        <v>0.02216021612334457</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2995749081.653193</v>
+        <v>3806938107.32691</v>
       </c>
       <c r="F98" t="n">
-        <v>0.105082520276487</v>
+        <v>0.1037698086597016</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02844020318622911</v>
+        <v>0.02584196840367245</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2625365403.221595</v>
+        <v>2569464538.649338</v>
       </c>
       <c r="F99" t="n">
-        <v>0.141938382780233</v>
+        <v>0.1254920041165175</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03094257052483975</v>
+        <v>0.03145607745985302</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4712685735.993354</v>
+        <v>3440385096.473602</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1508134648740638</v>
+        <v>0.1139099025094739</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02313946443801085</v>
+        <v>0.01984559902100927</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2684841524.095982</v>
+        <v>2587267313.836696</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2048995743847896</v>
+        <v>0.199049054027416</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03801451490553706</v>
+        <v>0.05354208340165566</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_430.xlsx
+++ b/output/fit_clients/fit_round_430.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1579286400.768059</v>
+        <v>2356784993.536778</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07160629688697762</v>
+        <v>0.07616613849864856</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04493340026493236</v>
+        <v>0.02795333574551506</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2345429318.634657</v>
+        <v>2230341090.773328</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1154467644106625</v>
+        <v>0.1158792684097586</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03317785155935406</v>
+        <v>0.03642456252788354</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4839754354.435327</v>
+        <v>3207544629.569922</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1031583922030964</v>
+        <v>0.1221141108616478</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02903767240430647</v>
+        <v>0.02707276724123243</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>218</v>
+      </c>
+      <c r="J4" t="n">
+        <v>428</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4150938646.674263</v>
+        <v>3015644294.81786</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06792504365075663</v>
+        <v>0.1092401416454033</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03589504140229909</v>
+        <v>0.03714491165159218</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>178</v>
+      </c>
+      <c r="J5" t="n">
+        <v>429</v>
+      </c>
+      <c r="K5" t="n">
+        <v>36.53865209692568</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2200879472.705081</v>
+        <v>2485537133.711994</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1272079061035838</v>
+        <v>0.1398721727543127</v>
       </c>
       <c r="G6" t="n">
-        <v>0.056419184139077</v>
+        <v>0.04383048830889941</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2356621494.708164</v>
+        <v>3090810358.128367</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09426906855035769</v>
+        <v>0.06657094994354189</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03181719808159375</v>
+        <v>0.04847077914518794</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3204315862.821295</v>
+        <v>3463111396.192998</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1964771635584962</v>
+        <v>0.1384434445782192</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02975529917835345</v>
+        <v>0.02962173420828954</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>115</v>
+      </c>
+      <c r="J8" t="n">
+        <v>430</v>
+      </c>
+      <c r="K8" t="n">
+        <v>57.76877706326282</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1794185105.103995</v>
+        <v>1944100517.900177</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1402207776657783</v>
+        <v>0.1783444590369148</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02776255530372018</v>
+        <v>0.03103137398694731</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4693538603.397873</v>
+        <v>5304186839.115304</v>
       </c>
       <c r="F10" t="n">
-        <v>0.155850148539646</v>
+        <v>0.1796238345255368</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04367464502471193</v>
+        <v>0.04523862534456778</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>340</v>
+      </c>
+      <c r="J10" t="n">
+        <v>429</v>
+      </c>
+      <c r="K10" t="n">
+        <v>37.76215341994996</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3254694103.556225</v>
+        <v>3253637632.430166</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1622569250316327</v>
+        <v>0.1534069880327775</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04740677362941895</v>
+        <v>0.0464187549398923</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>177</v>
+      </c>
+      <c r="J11" t="n">
+        <v>424</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2458521045.352109</v>
+        <v>2955557673.597667</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1914954470922082</v>
+        <v>0.1887934469460896</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05379320996823026</v>
+        <v>0.04771728171111082</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4618698065.125018</v>
+        <v>5338731850.320148</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07556314978653718</v>
+        <v>0.07260346163998393</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02142764071094138</v>
+        <v>0.02455701593760715</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>225</v>
+      </c>
+      <c r="J13" t="n">
+        <v>429</v>
+      </c>
+      <c r="K13" t="n">
+        <v>38.5629669528122</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3853969924.336136</v>
+        <v>2672855119.406265</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1273665523658078</v>
+        <v>0.1707829964791498</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04176806155898939</v>
+        <v>0.03362792590051582</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>92</v>
+      </c>
+      <c r="J14" t="n">
+        <v>426</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1165622163.599981</v>
+        <v>1271038841.374965</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06685126837821409</v>
+        <v>0.06821993796660372</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04721781569649963</v>
+        <v>0.0378338424110274</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2137252704.229405</v>
+        <v>2208611660.188437</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08235973448974897</v>
+        <v>0.07216147982316445</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04352814606013816</v>
+        <v>0.0331337137075411</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4877135943.21149</v>
+        <v>3886363427.362401</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1627122544486042</v>
+        <v>0.1113285467852668</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03568344316351772</v>
+        <v>0.05220246326356989</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>209</v>
+      </c>
+      <c r="J17" t="n">
+        <v>429</v>
+      </c>
+      <c r="K17" t="n">
+        <v>37.7268116600068</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3581893732.482751</v>
+        <v>2430091587.175075</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1173004852463766</v>
+        <v>0.1328900628272184</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03188307637424474</v>
+        <v>0.03261916698578871</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>111</v>
+      </c>
+      <c r="J18" t="n">
+        <v>427</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>967131490.0193533</v>
+        <v>990548394.0667692</v>
       </c>
       <c r="F19" t="n">
-        <v>0.153225077596234</v>
+        <v>0.1172192771362459</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02464551545047112</v>
+        <v>0.02442382565630459</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2610962808.839972</v>
+        <v>2317530387.097215</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1218537562897834</v>
+        <v>0.113298060359285</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02855340270909318</v>
+        <v>0.02400931779487643</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2332062175.122539</v>
+        <v>2043328311.827539</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09403381254590019</v>
+        <v>0.07163430655670529</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03807234307742405</v>
+        <v>0.03560669906722153</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1205,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2641931801.236555</v>
+        <v>3705393839.806302</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1334053106554273</v>
+        <v>0.09565522450876482</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04545118529768576</v>
+        <v>0.03753733326373737</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>124</v>
+      </c>
+      <c r="J22" t="n">
+        <v>429</v>
+      </c>
+      <c r="K22" t="n">
+        <v>50.13497627238674</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1248,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1481983197.408114</v>
+        <v>1110095051.547405</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1806737108611411</v>
+        <v>0.122274243093095</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03837665577545184</v>
+        <v>0.04609362988922241</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1277,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2907210866.943407</v>
+        <v>2868837385.580874</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1222058067845941</v>
+        <v>0.1282194570491317</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02930634149653422</v>
+        <v>0.0274914125093632</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>137</v>
+      </c>
+      <c r="J24" t="n">
+        <v>429</v>
+      </c>
+      <c r="K24" t="n">
+        <v>31.26531817645702</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1320,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1362706744.285394</v>
+        <v>934709735.5459926</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07976565859153269</v>
+        <v>0.09936796205216683</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02176301110106309</v>
+        <v>0.02405232016044128</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1348763861.512589</v>
+        <v>957526983.2030537</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07621873579791014</v>
+        <v>0.08997579778150747</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02579941076665971</v>
+        <v>0.03052855488473263</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1384,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2877308126.940844</v>
+        <v>3254745313.552489</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1277913937411351</v>
+        <v>0.1297062485303822</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02147272112476356</v>
+        <v>0.02073480895577328</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>185</v>
+      </c>
+      <c r="J27" t="n">
+        <v>428</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1425,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3268581821.14444</v>
+        <v>3675751186.683058</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1449970700947525</v>
+        <v>0.110837043885145</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04578602673198574</v>
+        <v>0.04849310437197236</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>105</v>
+      </c>
+      <c r="J28" t="n">
+        <v>423</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1460,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5260672874.368253</v>
+        <v>5722826814.939557</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1443459044791501</v>
+        <v>0.1268584740614064</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04197761485696833</v>
+        <v>0.03030731252342929</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>356</v>
+      </c>
+      <c r="J29" t="n">
+        <v>429</v>
+      </c>
+      <c r="K29" t="n">
+        <v>37.1059613936115</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1497,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1899907522.433571</v>
+        <v>1468599304.316317</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09365524899368882</v>
+        <v>0.1020398463875869</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03963575129264398</v>
+        <v>0.03875956474149812</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1397882565.282657</v>
+        <v>1473092706.858555</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1120314898420714</v>
+        <v>0.08758811709098652</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03559348316355739</v>
+        <v>0.03388317914861594</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1483703270.26949</v>
+        <v>1798370401.916368</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0962211168834778</v>
+        <v>0.09834355727388656</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02782284178451113</v>
+        <v>0.03223219046961026</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2685873896.546402</v>
+        <v>2712466537.48026</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1409378784796175</v>
+        <v>0.2018575758941717</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06014494806263497</v>
+        <v>0.05544246115634095</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1012353853.955349</v>
+        <v>1033528909.252144</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0815826308433935</v>
+        <v>0.1057510682455931</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02117592932763675</v>
+        <v>0.01889254599859974</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>895648552.6780202</v>
+        <v>1120058384.369481</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1010334102507381</v>
+        <v>0.1122730898975606</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0346302388687009</v>
+        <v>0.03922019505107507</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3252907423.556115</v>
+        <v>2736662841.21866</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1116244482177435</v>
+        <v>0.1750137086759958</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01888496815769181</v>
+        <v>0.02536996666526799</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2267709823.852547</v>
+        <v>2052266104.066394</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08995175927462989</v>
+        <v>0.1091299122281472</v>
       </c>
       <c r="G37" t="n">
-        <v>0.034521626167194</v>
+        <v>0.03610266659738065</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1468716683.091324</v>
+        <v>2116405964.901643</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07709106557927919</v>
+        <v>0.07505487378933365</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02940920694641912</v>
+        <v>0.03019635709484473</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1691095402.664004</v>
+        <v>2006744558.607705</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1869530073353159</v>
+        <v>0.1713772325583546</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02223441251757038</v>
+        <v>0.03204706879273773</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1414571859.567557</v>
+        <v>1574535395.525866</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1516030047550853</v>
+        <v>0.1230238810002498</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03674356821730644</v>
+        <v>0.04199472394682333</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1882,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1979846020.673488</v>
+        <v>2367951291.936205</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1191755425445425</v>
+        <v>0.1334704030334317</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03710374054836914</v>
+        <v>0.04388016512744006</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3568559087.522463</v>
+        <v>3869998882.876993</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07881770282978569</v>
+        <v>0.1105909682925953</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03726635693912469</v>
+        <v>0.03918690611402715</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>184</v>
+      </c>
+      <c r="J42" t="n">
+        <v>430</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2626467102.329372</v>
+        <v>2282495857.239911</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1936461553432638</v>
+        <v>0.1554192150828136</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01663857650442601</v>
+        <v>0.01873146577933867</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2281924311.291806</v>
+        <v>1785985285.842072</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06726822178742022</v>
+        <v>0.07867307224699051</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03614445019970444</v>
+        <v>0.03116930435608474</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2135819926.181928</v>
+        <v>2025536697.335509</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1551298758733434</v>
+        <v>0.1767389209973762</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0554456384111626</v>
+        <v>0.04003929528275156</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2051,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3932492903.696276</v>
+        <v>4743100706.832421</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1408626263169469</v>
+        <v>0.1566811208484998</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04905508159612307</v>
+        <v>0.04429539602815767</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>256</v>
+      </c>
+      <c r="J46" t="n">
+        <v>430</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4891055582.974537</v>
+        <v>4827354406.743527</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1392153808235697</v>
+        <v>0.1316201905589929</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04471907376536328</v>
+        <v>0.05585032208160701</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>192</v>
+      </c>
+      <c r="J47" t="n">
+        <v>430</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3760994309.658174</v>
+        <v>2909610781.780726</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0782861642427554</v>
+        <v>0.08660350715023225</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03529191496956641</v>
+        <v>0.03590588693837302</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>220</v>
+      </c>
+      <c r="J48" t="n">
+        <v>429</v>
+      </c>
+      <c r="K48" t="n">
+        <v>27.78735748616853</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1866681469.197494</v>
+        <v>1932934645.646503</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1628368692204823</v>
+        <v>0.1711562422665857</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0402263394115774</v>
+        <v>0.04243248182099019</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4005839741.384056</v>
+        <v>3496841601.418342</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1085653761400465</v>
+        <v>0.1254079161308309</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04411233062431435</v>
+        <v>0.04741686714530373</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>150</v>
+      </c>
+      <c r="J50" t="n">
+        <v>429</v>
+      </c>
+      <c r="K50" t="n">
+        <v>48.10647438907689</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1541882260.944088</v>
+        <v>1137001252.225913</v>
       </c>
       <c r="F51" t="n">
-        <v>0.131593625518555</v>
+        <v>0.12739285218977</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05344044014926429</v>
+        <v>0.04968789238217042</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2265,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5054138020.336706</v>
+        <v>3726725655.076571</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1364640910811364</v>
+        <v>0.1249144388451936</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05963390798063412</v>
+        <v>0.04034211750981605</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>247</v>
+      </c>
+      <c r="J52" t="n">
+        <v>429</v>
+      </c>
+      <c r="K52" t="n">
+        <v>39.06819750915673</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2821089224.509163</v>
+        <v>2312407453.167005</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1793463868724362</v>
+        <v>0.1985349348626599</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02549081161696241</v>
+        <v>0.02358111661197229</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>63</v>
+      </c>
+      <c r="J53" t="n">
+        <v>424</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2337,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4568261976.228281</v>
+        <v>3143366946.847573</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1198729914794653</v>
+        <v>0.1069619393744722</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04165284314889524</v>
+        <v>0.0418969459091349</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>229</v>
+      </c>
+      <c r="J54" t="n">
+        <v>427</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4279334591.43877</v>
+        <v>4808486892.423365</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1920444272226107</v>
+        <v>0.1530927706146846</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02801287376870952</v>
+        <v>0.02523012614916409</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>212</v>
+      </c>
+      <c r="J55" t="n">
+        <v>430</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1209117946.390185</v>
+        <v>1551348403.091812</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1455609546456435</v>
+        <v>0.1101997137697821</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05444549787809854</v>
+        <v>0.05287838908629019</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3950438599.160516</v>
+        <v>4210956196.487712</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1223434062382289</v>
+        <v>0.1557627886862703</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01746387755516458</v>
+        <v>0.0249335341162237</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>187</v>
+      </c>
+      <c r="J57" t="n">
+        <v>430</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1264542404.068142</v>
+        <v>1247028125.328446</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1841425424777512</v>
+        <v>0.1242929698520857</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03402145713172283</v>
+        <v>0.02681290493548972</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4163148284.576411</v>
+        <v>5019934378.07241</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1310199168435017</v>
+        <v>0.09285522833407221</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04348302343259446</v>
+        <v>0.03425738616977062</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>210</v>
+      </c>
+      <c r="J59" t="n">
+        <v>430</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2696388813.749587</v>
+        <v>3534322246.057798</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1714595785077708</v>
+        <v>0.2007074724411949</v>
       </c>
       <c r="G60" t="n">
-        <v>0.025903278566055</v>
+        <v>0.02324030441985676</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>82</v>
+      </c>
+      <c r="J60" t="n">
+        <v>420</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2979351663.933379</v>
+        <v>3206301288.761315</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1111528387663321</v>
+        <v>0.1424862344671406</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02611866808811508</v>
+        <v>0.02114088264774342</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1608723815.923908</v>
+        <v>1987146964.361289</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1783068935951752</v>
+        <v>0.1235831800165575</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04452677976898536</v>
+        <v>0.04673456271894482</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4291126292.590823</v>
+        <v>4382072843.165032</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1028691855870737</v>
+        <v>0.07044534744201883</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04490830026574755</v>
+        <v>0.03485953456188589</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>214</v>
+      </c>
+      <c r="J63" t="n">
+        <v>430</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5111313510.208535</v>
+        <v>4901945172.464939</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1315751794646808</v>
+        <v>0.1448530620641874</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02955054316921551</v>
+        <v>0.0228971308818209</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>215</v>
+      </c>
+      <c r="J64" t="n">
+        <v>430</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2722,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4981359195.35608</v>
+        <v>3704442536.047827</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1085350043073538</v>
+        <v>0.1220328334590585</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02391065921987414</v>
+        <v>0.02380606224465807</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>312</v>
+      </c>
+      <c r="J65" t="n">
+        <v>430</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2757,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5376100062.334651</v>
+        <v>4268076785.385271</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1443028713859461</v>
+        <v>0.1378311035999762</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03877461537975977</v>
+        <v>0.03528778438036029</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>212</v>
+      </c>
+      <c r="J66" t="n">
+        <v>429</v>
+      </c>
+      <c r="K66" t="n">
+        <v>36.57534787884298</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3165860336.124003</v>
+        <v>2275529142.126828</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06740264219588799</v>
+        <v>0.09655776425437478</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03644239267694359</v>
+        <v>0.04119314714895995</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2829,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4767005734.665959</v>
+        <v>5478985060.198768</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1548254845278107</v>
+        <v>0.1501674230476827</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05007981588283965</v>
+        <v>0.0450407663974858</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>234</v>
+      </c>
+      <c r="J68" t="n">
+        <v>430</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2404913641.073776</v>
+        <v>2007442701.842837</v>
       </c>
       <c r="F69" t="n">
-        <v>0.113799556967198</v>
+        <v>0.1730482198996478</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04470293102391731</v>
+        <v>0.05274289902415653</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,16 +2905,25 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3558309107.689999</v>
+        <v>3270631384.542739</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06669083395330749</v>
+        <v>0.07027894328002347</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03501941083335795</v>
+        <v>0.04276950784424654</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>57</v>
+      </c>
+      <c r="J70" t="n">
+        <v>430</v>
+      </c>
+      <c r="K70" t="n">
+        <v>55.96178509961651</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2942,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4586244102.802155</v>
+        <v>3485381812.020411</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1580898458725529</v>
+        <v>0.1524405435092376</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03348704853805794</v>
+        <v>0.02084479278531248</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>299</v>
+      </c>
+      <c r="J71" t="n">
+        <v>429</v>
+      </c>
+      <c r="K71" t="n">
+        <v>39.75156893263419</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2191070081.290939</v>
+        <v>1653935067.5083</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07413976829567857</v>
+        <v>0.1009420625928564</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04328783780832312</v>
+        <v>0.04985294825177261</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2719121498.202187</v>
+        <v>2245717861.786809</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1121226001885063</v>
+        <v>0.1124958224084188</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05095512846854258</v>
+        <v>0.05201694898630204</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>30</v>
+      </c>
+      <c r="J73" t="n">
+        <v>426</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2477363091.974116</v>
+        <v>3951367001.753899</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1660265878086729</v>
+        <v>0.1479569520956917</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02818800436825641</v>
+        <v>0.03441652483393019</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>125</v>
+      </c>
+      <c r="J74" t="n">
+        <v>430</v>
+      </c>
+      <c r="K74" t="n">
+        <v>53.46902403164786</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2346980409.030943</v>
+        <v>1558857968.052104</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1557061801224325</v>
+        <v>0.1481323856758605</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02489898531821253</v>
+        <v>0.03730437610472462</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3780304641.875033</v>
+        <v>4242044142.834914</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1084097328075219</v>
+        <v>0.1071922470947062</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02183944836802013</v>
+        <v>0.02938604971403736</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>205</v>
+      </c>
+      <c r="J76" t="n">
+        <v>429</v>
+      </c>
+      <c r="K76" t="n">
+        <v>38.61390392382664</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1624628376.164444</v>
+        <v>1483581637.787023</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1799205672832295</v>
+        <v>0.1783953836431421</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02418947858477096</v>
+        <v>0.02603584813558136</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4403492726.191623</v>
+        <v>4806335106.666179</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1073861317275706</v>
+        <v>0.1032997906518619</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04790284884476522</v>
+        <v>0.04524666156058253</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>215</v>
+      </c>
+      <c r="J78" t="n">
+        <v>430</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1643731817.580596</v>
+        <v>1430671744.574325</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1252204738499524</v>
+        <v>0.1289767453422885</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03662499017949082</v>
+        <v>0.03513431860892405</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4887203722.179499</v>
+        <v>4189888211.182044</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09398877144176421</v>
+        <v>0.1115304778452842</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0322617331641895</v>
+        <v>0.03193665563721011</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>209</v>
+      </c>
+      <c r="J80" t="n">
+        <v>430</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3535923783.47479</v>
+        <v>4885156341.898892</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09508557342288949</v>
+        <v>0.0889711061779325</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02882205932663936</v>
+        <v>0.02226764014613668</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>199</v>
+      </c>
+      <c r="J81" t="n">
+        <v>430</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3327,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4018609041.576094</v>
+        <v>5139340278.518702</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1761117132876439</v>
+        <v>0.156638668768797</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02525906082758815</v>
+        <v>0.02144222371750315</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>290</v>
+      </c>
+      <c r="J82" t="n">
+        <v>430</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2479145659.139568</v>
+        <v>2242780390.805558</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1357579985048467</v>
+        <v>0.1186791491161381</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03311561473693148</v>
+        <v>0.03927120438552164</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2296992460.390292</v>
+        <v>1697382691.037858</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08604177239013644</v>
+        <v>0.1011892911374613</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03240259649586992</v>
+        <v>0.03261497313522788</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3432,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3150159706.349083</v>
+        <v>3156187165.190652</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1266198549426169</v>
+        <v>0.1456869173873428</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03900045825530797</v>
+        <v>0.05285799173489675</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>56</v>
+      </c>
+      <c r="J85" t="n">
+        <v>430</v>
+      </c>
+      <c r="K85" t="n">
+        <v>66.27663457234546</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1785338822.731259</v>
+        <v>2503293322.602439</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1385467196598634</v>
+        <v>0.1358034186407366</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01854433349104806</v>
+        <v>0.02089818115652895</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1267060878.660293</v>
+        <v>1181997230.070049</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1299426720527383</v>
+        <v>0.1495849421021495</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03291192098998434</v>
+        <v>0.03448968533801063</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3539,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3340907481.822621</v>
+        <v>3118945771.648264</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1178696185083045</v>
+        <v>0.1199784734615024</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03748509199930863</v>
+        <v>0.03861041333250794</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>57</v>
+      </c>
+      <c r="J88" t="n">
+        <v>430</v>
+      </c>
+      <c r="K88" t="n">
+        <v>52.20608473435134</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3150116414.98272</v>
+        <v>2208373940.309128</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1175671492730807</v>
+        <v>0.1481415595734297</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03435570313766348</v>
+        <v>0.03359524970614972</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1888020674.991239</v>
+        <v>2024640703.908408</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1358935967255053</v>
+        <v>0.1206855882599972</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0446558242578359</v>
+        <v>0.04491492241748288</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2037328138.683293</v>
+        <v>1622778657.4647</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1775515846069955</v>
+        <v>0.1374737972824428</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05269399413757176</v>
+        <v>0.05979895538384486</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1840368111.674434</v>
+        <v>1939505003.562641</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09868994703400048</v>
+        <v>0.07438283439539582</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03144134956876554</v>
+        <v>0.03838415647659987</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4436066417.79985</v>
+        <v>4362934558.083503</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1317803266286766</v>
+        <v>0.1102207590015924</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05028678623526708</v>
+        <v>0.04736569543307013</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>206</v>
+      </c>
+      <c r="J93" t="n">
+        <v>430</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2172790844.284053</v>
+        <v>2009766404.493216</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1652405692425607</v>
+        <v>0.1384425389159956</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03534147374613634</v>
+        <v>0.02738465959197421</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3093109897.576948</v>
+        <v>3150470179.759302</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08584720301233173</v>
+        <v>0.1107582726105729</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04863061135544615</v>
+        <v>0.04901364850403338</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2110576542.721232</v>
+        <v>1774844791.25249</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08888840581899911</v>
+        <v>0.1090470044482714</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0295872281309848</v>
+        <v>0.04652897166569851</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4289681134.463973</v>
+        <v>4750542522.843064</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1677716728411029</v>
+        <v>0.1121881019687359</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02216021612334457</v>
+        <v>0.02478190147878823</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>225</v>
+      </c>
+      <c r="J97" t="n">
+        <v>429</v>
+      </c>
+      <c r="K97" t="n">
+        <v>39.87149343359543</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3806938107.32691</v>
+        <v>2868570239.793102</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1037698086597016</v>
+        <v>0.1232556806190265</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02584196840367245</v>
+        <v>0.02373969162892091</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>109</v>
+      </c>
+      <c r="J98" t="n">
+        <v>426</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2569464538.649338</v>
+        <v>3304896196.153118</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1254920041165175</v>
+        <v>0.1294583852798325</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03145607745985302</v>
+        <v>0.02175845122277039</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3440385096.473602</v>
+        <v>2921234113.099052</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1139099025094739</v>
+        <v>0.1281853141416125</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01984559902100927</v>
+        <v>0.02566559201888728</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>201</v>
+      </c>
+      <c r="J100" t="n">
+        <v>429</v>
+      </c>
+      <c r="K100" t="n">
+        <v>28.02803352615733</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2587267313.836696</v>
+        <v>2899381239.542799</v>
       </c>
       <c r="F101" t="n">
-        <v>0.199049054027416</v>
+        <v>0.1769161348205129</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05354208340165566</v>
+        <v>0.05310839120743031</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
